--- a/testData.xlsx
+++ b/testData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umassd-my.sharepoint.com/personal/dramsamooj_umassd_edu/Documents/ECE600 - Devaj Ramsamooj/Mosaic Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7badd73c48977727/Documents/GitHub/MosaicData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B3C2369-8580-4047-861D-A7FDC0C603BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{5B3C2369-8580-4047-861D-A7FDC0C603BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A429787-4679-4E83-B119-9D1DFB5D8113}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DCE888E-5044-4FF2-9950-387C03D19872}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="66">
   <si>
     <t>Date and Time</t>
   </si>
@@ -162,15 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve">  (at simulation time 231.402</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SeqNum=1325</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> } (at simulation time 231.502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  (at simulation time 231.503</t>
   </si>
   <si>
     <t xml:space="preserve"> SeqNum=1326</t>
@@ -595,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F418AE-D4DC-4741-A86F-C29B518FBFBF}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1009,7 @@
         <v>46</v>
       </c>
       <c r="O8">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="P8" t="s">
         <v>47</v>
@@ -1077,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="Q9">
-        <v>800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1124,13 +1115,13 @@
         <v>52</v>
       </c>
       <c r="O10">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="P10" t="s">
         <v>53</v>
       </c>
       <c r="Q10">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1138,7 +1129,7 @@
         <v>45049.905555555553</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -1156,7 +1147,7 @@
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -1168,22 +1159,22 @@
         <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="N11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O11">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="P11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q11">
-        <v>800</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1191,7 +1182,7 @@
         <v>45049.905555555553</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -1209,7 +1200,7 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -1221,22 +1212,22 @@
         <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N12" t="s">
         <v>61</v>
       </c>
       <c r="O12">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="P12" t="s">
         <v>62</v>
       </c>
       <c r="Q12">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1244,7 +1235,7 @@
         <v>45049.905555555553</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -1274,10 +1265,10 @@
         <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N13" t="s">
         <v>64</v>
@@ -1289,59 +1280,6 @@
         <v>65</v>
       </c>
       <c r="Q13">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>45049.905555555553</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" t="s">
-        <v>60</v>
-      </c>
-      <c r="N14" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14">
-        <v>400</v>
-      </c>
-      <c r="P14" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14">
         <v>800</v>
       </c>
     </row>
